--- a/config_11.30/game_enter_btn_config.xlsx
+++ b/config_11.30/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1562,10 +1562,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;149;#</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1603,6 +1599,10 @@
   </si>
   <si>
     <t>"act_ty_gifts","gift_khlb","enter",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;131;#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2710,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -3362,7 +3362,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomRight" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E130">
         <v>129</v>
@@ -5699,7 +5699,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E146">
         <v>145</v>
@@ -6049,19 +6049,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -6069,7 +6069,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6078,7 +6078,7 @@
         <v>151</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -6332,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
